--- a/map_data/map-data.xlsx
+++ b/map_data/map-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cande/Desktop/Fall 2019/Intro to DataSC/FINALPROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cande/Desktop/Fall 2019/Intro to DataSC/FINALPROJECT/finalProjectCKJS/map_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t xml:space="preserve">College </t>
   </si>
@@ -225,13 +225,43 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>R2010</t>
+  </si>
+  <si>
+    <t>R2011</t>
+  </si>
+  <si>
+    <t>R2012</t>
+  </si>
+  <si>
+    <t>R2013</t>
+  </si>
+  <si>
+    <t>R2014</t>
+  </si>
+  <si>
+    <t>R2015</t>
+  </si>
+  <si>
+    <t>R2016</t>
+  </si>
+  <si>
+    <t>R2017</t>
+  </si>
+  <si>
+    <t>R2018</t>
+  </si>
+  <si>
+    <t>R2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +271,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,16 +321,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -553,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,92 +651,392 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1">
+        <v>2008</v>
+      </c>
+      <c r="Q1">
+        <v>2009</v>
+      </c>
+      <c r="R1">
+        <v>2010</v>
+      </c>
+      <c r="S1">
+        <v>2011</v>
+      </c>
+      <c r="T1">
+        <v>2012</v>
+      </c>
+      <c r="U1">
+        <v>2013</v>
+      </c>
+      <c r="V1">
+        <v>2014</v>
+      </c>
+      <c r="W1">
+        <v>2015</v>
+      </c>
+      <c r="X1">
+        <v>2016</v>
+      </c>
+      <c r="Y1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2">
-        <v>-73.205828299999993</v>
+        <v>-72.520613499999996</v>
       </c>
       <c r="D2">
-        <v>42.712958100000002</v>
+        <v>42.370737900000002</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2</v>
+      </c>
+      <c r="N2" s="9">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1706</v>
+      </c>
+      <c r="Q2">
+        <v>1306</v>
+      </c>
+      <c r="R2">
+        <v>1386</v>
+      </c>
+      <c r="S2">
+        <v>1642</v>
+      </c>
+      <c r="T2">
+        <v>1641</v>
+      </c>
+      <c r="U2">
+        <v>1824</v>
+      </c>
+      <c r="V2">
+        <v>2149</v>
+      </c>
+      <c r="W2">
+        <v>2194</v>
+      </c>
+      <c r="X2">
+        <v>2032</v>
+      </c>
+      <c r="Y2">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3">
-        <v>-72.520613499999996</v>
+        <v>-73.9661519</v>
       </c>
       <c r="D3">
-        <v>42.370737900000002</v>
+        <v>40.809097399999999</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6">
+        <v>28</v>
+      </c>
+      <c r="J3" s="6">
+        <v>32</v>
+      </c>
+      <c r="K3" s="7">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1">
+        <v>29</v>
+      </c>
+      <c r="M3" s="8">
+        <v>27</v>
+      </c>
+      <c r="N3" s="9">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>216</v>
+      </c>
+      <c r="Q3">
+        <v>168</v>
+      </c>
+      <c r="R3">
+        <v>187</v>
+      </c>
+      <c r="S3">
+        <v>218</v>
+      </c>
+      <c r="T3">
+        <v>216</v>
+      </c>
+      <c r="U3">
+        <v>244</v>
+      </c>
+      <c r="V3">
+        <v>276</v>
+      </c>
+      <c r="W3">
+        <v>297</v>
+      </c>
+      <c r="X3">
+        <v>287</v>
+      </c>
+      <c r="Y3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4">
-        <v>-75.358238700000001</v>
+        <v>-70.204375200000001</v>
       </c>
       <c r="D4">
-        <v>39.901461599999998</v>
+        <v>44.105721600000003</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6">
+        <v>22</v>
+      </c>
+      <c r="J4" s="6">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>25</v>
+      </c>
+      <c r="M4" s="8">
+        <v>27</v>
+      </c>
+      <c r="N4" s="9">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1">
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <v>267</v>
+      </c>
+      <c r="Q4">
+        <v>184</v>
+      </c>
+      <c r="R4">
+        <v>199</v>
+      </c>
+      <c r="S4">
+        <v>231</v>
+      </c>
+      <c r="T4">
+        <v>216</v>
+      </c>
+      <c r="U4">
+        <v>234</v>
+      </c>
+      <c r="V4">
+        <v>264</v>
+      </c>
+      <c r="W4">
+        <v>262</v>
+      </c>
+      <c r="X4">
+        <v>251</v>
+      </c>
+      <c r="Y4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>-71.3134479</v>
+        <v>-89.033093500000007</v>
       </c>
       <c r="D5">
-        <v>42.299521599999999</v>
+        <v>42.503033299999998</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F5" s="6">
+        <v>62</v>
+      </c>
+      <c r="G5" s="6">
+        <v>55</v>
+      </c>
+      <c r="H5" s="6">
+        <v>60</v>
+      </c>
+      <c r="I5" s="6">
+        <v>63</v>
+      </c>
+      <c r="J5" s="6">
+        <v>59</v>
+      </c>
+      <c r="K5" s="7">
+        <v>61</v>
+      </c>
+      <c r="L5" s="1">
+        <v>61</v>
+      </c>
+      <c r="M5" s="8">
+        <v>62</v>
+      </c>
+      <c r="N5" s="9">
+        <v>76</v>
+      </c>
+      <c r="O5" s="1">
+        <v>68</v>
+      </c>
+      <c r="P5">
+        <v>132</v>
+      </c>
+      <c r="Q5">
+        <v>104</v>
+      </c>
+      <c r="R5">
+        <v>108</v>
+      </c>
+      <c r="S5">
+        <v>115</v>
+      </c>
+      <c r="T5">
+        <v>117</v>
+      </c>
+      <c r="U5">
+        <v>132</v>
+      </c>
+      <c r="V5">
+        <v>145</v>
+      </c>
+      <c r="W5">
+        <v>149</v>
+      </c>
+      <c r="X5">
+        <v>142</v>
+      </c>
+      <c r="Y5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -666,59 +1052,299 @@
       <c r="E6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="8">
+        <v>6</v>
+      </c>
+      <c r="N6" s="9">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>831</v>
+      </c>
+      <c r="Q6">
+        <v>688</v>
+      </c>
+      <c r="R6">
+        <v>754</v>
+      </c>
+      <c r="S6">
+        <v>904</v>
+      </c>
+      <c r="T6">
+        <v>902</v>
+      </c>
+      <c r="U6">
+        <v>1039</v>
+      </c>
+      <c r="V6">
+        <v>1216</v>
+      </c>
+      <c r="W6">
+        <v>1393</v>
+      </c>
+      <c r="X6">
+        <v>1340</v>
+      </c>
+      <c r="Y6">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>-93.158035799999993</v>
+        <v>-75.317422800000003</v>
       </c>
       <c r="D7">
-        <v>44.463185000000003</v>
+        <v>40.0281065</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6">
+        <v>25</v>
+      </c>
+      <c r="I7" s="6">
+        <v>26</v>
+      </c>
+      <c r="J7" s="6">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1">
+        <v>25</v>
+      </c>
+      <c r="M7" s="8">
+        <v>31</v>
+      </c>
+      <c r="N7" s="9">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1">
+        <v>27</v>
+      </c>
+      <c r="P7">
+        <v>668</v>
+      </c>
+      <c r="Q7">
+        <v>522</v>
+      </c>
+      <c r="R7">
+        <v>574</v>
+      </c>
+      <c r="S7">
+        <v>671</v>
+      </c>
+      <c r="T7">
+        <v>645</v>
+      </c>
+      <c r="U7">
+        <v>711</v>
+      </c>
+      <c r="V7">
+        <v>854</v>
+      </c>
+      <c r="W7">
+        <v>853</v>
+      </c>
+      <c r="X7">
+        <v>797</v>
+      </c>
+      <c r="Y7">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>-73.221919200000002</v>
+        <v>-76.887126499999994</v>
       </c>
       <c r="D8">
-        <v>44.006977999999997</v>
+        <v>40.954726800000003</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F8" s="6">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6">
+        <v>29</v>
+      </c>
+      <c r="I8" s="6">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1">
+        <v>32</v>
+      </c>
+      <c r="M8" s="8">
+        <v>32</v>
+      </c>
+      <c r="N8" s="9">
+        <v>33</v>
+      </c>
+      <c r="O8" s="1">
+        <v>36</v>
+      </c>
+      <c r="P8">
+        <v>555</v>
+      </c>
+      <c r="Q8">
+        <v>443</v>
+      </c>
+      <c r="R8">
+        <v>491</v>
+      </c>
+      <c r="S8">
+        <v>575</v>
+      </c>
+      <c r="T8">
+        <v>599</v>
+      </c>
+      <c r="U8">
+        <v>667</v>
+      </c>
+      <c r="V8">
+        <v>751</v>
+      </c>
+      <c r="W8">
+        <v>789</v>
+      </c>
+      <c r="X8">
+        <v>722</v>
+      </c>
+      <c r="Y8">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>-117.71399169999999</v>
+        <v>-93.158035799999993</v>
       </c>
       <c r="D9">
-        <v>34.0977429</v>
+        <v>44.463185000000003</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6">
+        <v>7</v>
+      </c>
+      <c r="K9" s="7">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8</v>
+      </c>
+      <c r="M9" s="8">
+        <v>7</v>
+      </c>
+      <c r="N9" s="9">
+        <v>8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>648</v>
+      </c>
+      <c r="Q9">
+        <v>517</v>
+      </c>
+      <c r="R9">
+        <v>563</v>
+      </c>
+      <c r="S9">
+        <v>653</v>
+      </c>
+      <c r="T9">
+        <v>646</v>
+      </c>
+      <c r="U9">
+        <v>701</v>
+      </c>
+      <c r="V9">
+        <v>793</v>
+      </c>
+      <c r="W9">
+        <v>783</v>
+      </c>
+      <c r="X9">
+        <v>738</v>
+      </c>
+      <c r="Y9">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -734,144 +1360,684 @@
       <c r="E10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="6">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9</v>
+      </c>
+      <c r="M10" s="8">
+        <v>9</v>
+      </c>
+      <c r="N10" s="9">
+        <v>8</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>528</v>
+      </c>
+      <c r="Q10">
+        <v>400</v>
+      </c>
+      <c r="R10">
+        <v>466</v>
+      </c>
+      <c r="S10">
+        <v>543</v>
+      </c>
+      <c r="T10">
+        <v>521</v>
+      </c>
+      <c r="U10">
+        <v>599</v>
+      </c>
+      <c r="V10">
+        <v>699</v>
+      </c>
+      <c r="W10">
+        <v>734</v>
+      </c>
+      <c r="X10">
+        <v>709</v>
+      </c>
+      <c r="Y10">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>-80.856303499999996</v>
+        <v>-69.664824899999999</v>
       </c>
       <c r="D11">
-        <v>35.481264400000001</v>
+        <v>44.563869099999998</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6">
+        <v>21</v>
+      </c>
+      <c r="I11" s="6">
+        <v>18</v>
+      </c>
+      <c r="J11" s="6">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1">
+        <v>19</v>
+      </c>
+      <c r="M11" s="8">
+        <v>12</v>
+      </c>
+      <c r="N11" s="9">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1">
+        <v>18</v>
+      </c>
+      <c r="P11">
+        <v>600</v>
+      </c>
+      <c r="Q11">
+        <v>453</v>
+      </c>
+      <c r="R11">
+        <v>502</v>
+      </c>
+      <c r="S11">
+        <v>611</v>
+      </c>
+      <c r="T11">
+        <v>600</v>
+      </c>
+      <c r="U11">
+        <v>650</v>
+      </c>
+      <c r="V11">
+        <v>741</v>
+      </c>
+      <c r="W11">
+        <v>746</v>
+      </c>
+      <c r="X11">
+        <v>711</v>
+      </c>
+      <c r="Y11">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>-92.760530200000005</v>
+        <v>-75.541626699999995</v>
       </c>
       <c r="D12">
-        <v>41.729478299999997</v>
+        <v>42.8164607</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F12" s="6">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6">
+        <v>20</v>
+      </c>
+      <c r="K12" s="7">
+        <v>22</v>
+      </c>
+      <c r="L12" s="1">
+        <v>19</v>
+      </c>
+      <c r="M12" s="8">
+        <v>12</v>
+      </c>
+      <c r="N12" s="9">
+        <v>12</v>
+      </c>
+      <c r="O12" s="1">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>704</v>
+      </c>
+      <c r="Q12">
+        <v>561</v>
+      </c>
+      <c r="R12">
+        <v>614</v>
+      </c>
+      <c r="S12">
+        <v>693</v>
+      </c>
+      <c r="T12">
+        <v>687</v>
+      </c>
+      <c r="U12">
+        <v>761</v>
+      </c>
+      <c r="V12">
+        <v>866</v>
+      </c>
+      <c r="W12">
+        <v>892</v>
+      </c>
+      <c r="X12">
+        <v>822</v>
+      </c>
+      <c r="Y12">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13">
-        <v>-75.335190600000004</v>
+        <v>-71.810149499999994</v>
       </c>
       <c r="D13">
-        <v>40.006559600000003</v>
+        <v>42.239239099999999</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6">
+        <v>36</v>
+      </c>
+      <c r="G13" s="6">
+        <v>32</v>
+      </c>
+      <c r="H13" s="6">
+        <v>29</v>
+      </c>
+      <c r="I13" s="6">
+        <v>32</v>
+      </c>
+      <c r="J13" s="6">
+        <v>25</v>
+      </c>
+      <c r="K13" s="7">
+        <v>34</v>
+      </c>
+      <c r="L13" s="1">
+        <v>32</v>
+      </c>
+      <c r="M13" s="8">
+        <v>32</v>
+      </c>
+      <c r="N13" s="9">
+        <v>33</v>
+      </c>
+      <c r="O13" s="1">
+        <v>35</v>
+      </c>
+      <c r="P13">
+        <v>629</v>
+      </c>
+      <c r="Q13">
+        <v>490</v>
+      </c>
+      <c r="R13">
+        <v>522</v>
+      </c>
+      <c r="S13">
+        <v>608</v>
+      </c>
+      <c r="T13">
+        <v>590</v>
+      </c>
+      <c r="U13">
+        <v>635</v>
+      </c>
+      <c r="V13">
+        <v>726</v>
+      </c>
+      <c r="W13">
+        <v>721</v>
+      </c>
+      <c r="X13">
+        <v>681</v>
+      </c>
+      <c r="Y13">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14">
-        <v>-72.644686899999996</v>
+        <v>-104.82792329999999</v>
       </c>
       <c r="D14">
-        <v>42.316299200000003</v>
+        <v>38.847962000000003</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F14" s="6">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6">
+        <v>26</v>
+      </c>
+      <c r="H14" s="6">
+        <v>27</v>
+      </c>
+      <c r="I14" s="6">
+        <v>28</v>
+      </c>
+      <c r="J14" s="6">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1">
+        <v>25</v>
+      </c>
+      <c r="M14" s="8">
+        <v>24</v>
+      </c>
+      <c r="N14" s="9">
+        <v>23</v>
+      </c>
+      <c r="O14" s="1">
+        <v>27</v>
+      </c>
+      <c r="P14">
+        <v>492</v>
+      </c>
+      <c r="Q14">
+        <v>401</v>
+      </c>
+      <c r="R14">
+        <v>460</v>
+      </c>
+      <c r="S14">
+        <v>542</v>
+      </c>
+      <c r="T14">
+        <v>533</v>
+      </c>
+      <c r="U14">
+        <v>593</v>
+      </c>
+      <c r="V14">
+        <v>680</v>
+      </c>
+      <c r="W14">
+        <v>720</v>
+      </c>
+      <c r="X14">
+        <v>683</v>
+      </c>
+      <c r="Y14">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15">
-        <v>-73.897888899999998</v>
+        <v>-72.106775600000006</v>
       </c>
       <c r="D15">
-        <v>41.686799200000003</v>
+        <v>41.378687599999999</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6">
+        <v>42</v>
+      </c>
+      <c r="G15" s="6">
+        <v>41</v>
+      </c>
+      <c r="H15" s="6">
+        <v>37</v>
+      </c>
+      <c r="I15" s="6">
+        <v>41</v>
+      </c>
+      <c r="J15" s="6">
+        <v>45</v>
+      </c>
+      <c r="K15" s="7">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>48</v>
+      </c>
+      <c r="M15" s="8">
+        <v>50</v>
+      </c>
+      <c r="N15" s="9">
+        <v>46</v>
+      </c>
+      <c r="O15" s="1">
+        <v>46</v>
+      </c>
+      <c r="P15">
+        <v>216</v>
+      </c>
+      <c r="Q15">
+        <v>165</v>
+      </c>
+      <c r="R15">
+        <v>179</v>
+      </c>
+      <c r="S15">
+        <v>213</v>
+      </c>
+      <c r="T15">
+        <v>211</v>
+      </c>
+      <c r="U15">
+        <v>237</v>
+      </c>
+      <c r="V15">
+        <v>278</v>
+      </c>
+      <c r="W15">
+        <v>284</v>
+      </c>
+      <c r="X15">
+        <v>274</v>
+      </c>
+      <c r="Y15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>-79.447145000000006</v>
+        <v>-80.856303499999996</v>
       </c>
       <c r="D16">
-        <v>37.790486100000003</v>
+        <v>35.481264400000001</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6">
+        <v>11</v>
+      </c>
+      <c r="I16" s="6">
+        <v>12</v>
+      </c>
+      <c r="J16" s="6">
+        <v>9</v>
+      </c>
+      <c r="K16" s="7">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9</v>
+      </c>
+      <c r="M16" s="8">
+        <v>9</v>
+      </c>
+      <c r="N16" s="9">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>501</v>
+      </c>
+      <c r="Q16">
+        <v>369</v>
+      </c>
+      <c r="R16">
+        <v>428</v>
+      </c>
+      <c r="S16">
+        <v>510</v>
+      </c>
+      <c r="T16">
+        <v>511</v>
+      </c>
+      <c r="U16">
+        <v>565</v>
+      </c>
+      <c r="V16">
+        <v>649</v>
+      </c>
+      <c r="W16">
+        <v>683</v>
+      </c>
+      <c r="X16">
+        <v>649</v>
+      </c>
+      <c r="Y16">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17">
-        <v>-75.541626699999995</v>
+        <v>-76.322111399999997</v>
       </c>
       <c r="D17">
-        <v>42.8164607</v>
+        <v>40.048739099999999</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F17" s="6">
+        <v>43</v>
+      </c>
+      <c r="G17" s="6">
+        <v>41</v>
+      </c>
+      <c r="H17" s="6">
+        <v>42</v>
+      </c>
+      <c r="I17" s="6">
+        <v>46</v>
+      </c>
+      <c r="J17" s="6">
+        <v>45</v>
+      </c>
+      <c r="K17" s="7">
+        <v>37</v>
+      </c>
+      <c r="L17" s="1">
+        <v>40</v>
+      </c>
+      <c r="M17" s="8">
+        <v>47</v>
+      </c>
+      <c r="N17" s="9">
+        <v>39</v>
+      </c>
+      <c r="O17" s="1">
+        <v>36</v>
+      </c>
+      <c r="P17">
+        <v>335</v>
+      </c>
+      <c r="Q17">
+        <v>249</v>
+      </c>
+      <c r="R17">
+        <v>266</v>
+      </c>
+      <c r="S17">
+        <v>303</v>
+      </c>
+      <c r="T17">
+        <v>285</v>
+      </c>
+      <c r="U17">
+        <v>306</v>
+      </c>
+      <c r="V17">
+        <v>339</v>
+      </c>
+      <c r="W17">
+        <v>335</v>
+      </c>
+      <c r="X17">
+        <v>306</v>
+      </c>
+      <c r="Y17">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>-69.664824899999999</v>
+        <v>-92.760530200000005</v>
       </c>
       <c r="D18">
-        <v>44.563869099999998</v>
+        <v>41.729478299999997</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F18" s="6">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6">
+        <v>19</v>
+      </c>
+      <c r="I18" s="6">
+        <v>22</v>
+      </c>
+      <c r="J18" s="6">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1">
+        <v>19</v>
+      </c>
+      <c r="M18" s="8">
+        <v>19</v>
+      </c>
+      <c r="N18" s="9">
+        <v>18</v>
+      </c>
+      <c r="O18" s="1">
+        <v>11</v>
+      </c>
+      <c r="P18">
+        <v>1472</v>
+      </c>
+      <c r="Q18">
+        <v>1076</v>
+      </c>
+      <c r="R18">
+        <v>1265</v>
+      </c>
+      <c r="S18">
+        <v>1500</v>
+      </c>
+      <c r="T18">
+        <v>1384</v>
+      </c>
+      <c r="U18">
+        <v>1554</v>
+      </c>
+      <c r="V18">
+        <v>1830</v>
+      </c>
+      <c r="W18">
+        <v>1788</v>
+      </c>
+      <c r="X18">
+        <v>1649</v>
+      </c>
+      <c r="Y18">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -887,399 +2053,1832 @@
       <c r="E19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="6">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6">
+        <v>17</v>
+      </c>
+      <c r="I19" s="6">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6">
+        <v>14</v>
+      </c>
+      <c r="K19" s="7">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1">
+        <v>14</v>
+      </c>
+      <c r="M19" s="8">
+        <v>12</v>
+      </c>
+      <c r="N19" s="9">
+        <v>18</v>
+      </c>
+      <c r="O19" s="1">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>670</v>
+      </c>
+      <c r="Q19">
+        <v>489</v>
+      </c>
+      <c r="R19">
+        <v>553</v>
+      </c>
+      <c r="S19">
+        <v>658</v>
+      </c>
+      <c r="T19">
+        <v>635</v>
+      </c>
+      <c r="U19">
+        <v>710</v>
+      </c>
+      <c r="V19">
+        <v>859</v>
+      </c>
+      <c r="W19">
+        <v>856</v>
+      </c>
+      <c r="X19">
+        <v>817</v>
+      </c>
+      <c r="Y19">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-72.659092799999996</v>
+        <v>-75.335190600000004</v>
       </c>
       <c r="D20">
-        <v>41.556610399999997</v>
+        <v>40.006559600000003</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6">
+        <v>10</v>
+      </c>
+      <c r="I20" s="6">
+        <v>9</v>
+      </c>
+      <c r="J20" s="6">
+        <v>9</v>
+      </c>
+      <c r="K20" s="7">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1">
+        <v>12</v>
+      </c>
+      <c r="M20" s="8">
+        <v>12</v>
+      </c>
+      <c r="N20" s="9">
+        <v>18</v>
+      </c>
+      <c r="O20" s="1">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <v>521</v>
+      </c>
+      <c r="Q20">
+        <v>336</v>
+      </c>
+      <c r="R20">
+        <v>356</v>
+      </c>
+      <c r="S20">
+        <v>403</v>
+      </c>
+      <c r="T20">
+        <v>388</v>
+      </c>
+      <c r="U20">
+        <v>434</v>
+      </c>
+      <c r="V20">
+        <v>495</v>
+      </c>
+      <c r="W20">
+        <v>495</v>
+      </c>
+      <c r="X20">
+        <v>472</v>
+      </c>
+      <c r="Y20">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>-70.204375200000001</v>
+        <v>-82.400496599999997</v>
       </c>
       <c r="D21">
-        <v>44.105721600000003</v>
+        <v>40.371896499999998</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F21" s="6">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6">
+        <v>32</v>
+      </c>
+      <c r="H21" s="6">
+        <v>33</v>
+      </c>
+      <c r="I21" s="6">
+        <v>32</v>
+      </c>
+      <c r="J21" s="6">
+        <v>32</v>
+      </c>
+      <c r="K21" s="7">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1">
+        <v>25</v>
+      </c>
+      <c r="M21" s="8">
+        <v>27</v>
+      </c>
+      <c r="N21" s="9">
+        <v>26</v>
+      </c>
+      <c r="O21" s="1">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <v>189</v>
+      </c>
+      <c r="Q21">
+        <v>151</v>
+      </c>
+      <c r="R21">
+        <v>159</v>
+      </c>
+      <c r="S21">
+        <v>180</v>
+      </c>
+      <c r="T21">
+        <v>185</v>
+      </c>
+      <c r="U21">
+        <v>195</v>
+      </c>
+      <c r="V21">
+        <v>212</v>
+      </c>
+      <c r="W21">
+        <v>219</v>
+      </c>
+      <c r="X21">
+        <v>209</v>
+      </c>
+      <c r="Y21">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22">
-        <v>-73.9661519</v>
+        <v>-75.210918500000005</v>
       </c>
       <c r="D22">
-        <v>40.809097399999999</v>
+        <v>40.698620200000001</v>
       </c>
       <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="6">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6">
+        <v>38</v>
+      </c>
+      <c r="H22" s="6">
+        <v>40</v>
+      </c>
+      <c r="I22" s="6">
+        <v>39</v>
+      </c>
+      <c r="J22" s="6">
+        <v>36</v>
+      </c>
+      <c r="K22" s="7">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1">
+        <v>37</v>
+      </c>
+      <c r="M22" s="8">
+        <v>36</v>
+      </c>
+      <c r="N22" s="9">
+        <v>36</v>
+      </c>
+      <c r="O22" s="1">
+        <v>36</v>
+      </c>
+      <c r="P22">
+        <v>683</v>
+      </c>
+      <c r="Q22">
+        <v>536</v>
+      </c>
+      <c r="R22">
+        <v>581</v>
+      </c>
+      <c r="S22">
+        <v>560</v>
+      </c>
+      <c r="T22">
+        <v>652</v>
+      </c>
+      <c r="U22">
+        <v>720</v>
+      </c>
+      <c r="V22">
+        <v>801</v>
+      </c>
+      <c r="W22">
+        <v>778</v>
+      </c>
+      <c r="X22">
+        <v>733</v>
+      </c>
+      <c r="Y22">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>-88.401776900000002</v>
+      </c>
+      <c r="D23">
+        <v>44.260832700000002</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="6">
+        <v>59</v>
+      </c>
+      <c r="G23" s="6">
+        <v>67</v>
+      </c>
+      <c r="H23" s="6">
+        <v>60</v>
+      </c>
+      <c r="I23" s="6">
+        <v>56</v>
+      </c>
+      <c r="J23" s="6">
+        <v>59</v>
+      </c>
+      <c r="K23" s="7">
+        <v>59</v>
+      </c>
+      <c r="L23" s="1">
+        <v>57</v>
+      </c>
+      <c r="M23" s="8">
+        <v>60</v>
+      </c>
+      <c r="N23" s="9">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="O23" s="1">
+        <v>56</v>
+      </c>
+      <c r="P23">
+        <v>216</v>
+      </c>
+      <c r="Q23">
+        <v>168</v>
+      </c>
+      <c r="R23">
+        <v>180</v>
+      </c>
+      <c r="S23">
+        <v>215</v>
+      </c>
+      <c r="T23">
+        <v>194</v>
+      </c>
+      <c r="U23">
+        <v>212</v>
+      </c>
+      <c r="V23">
+        <v>249</v>
+      </c>
+      <c r="W23">
+        <v>275</v>
+      </c>
+      <c r="X23">
+        <v>283</v>
+      </c>
+      <c r="Y23">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>-93.169135400000002</v>
+      </c>
+      <c r="D24">
+        <v>44.937893299999999</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="10">
+        <v>29</v>
+      </c>
+      <c r="G24" s="10">
+        <v>26</v>
+      </c>
+      <c r="H24" s="10">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
+      <c r="I24" s="10">
+        <v>24</v>
+      </c>
+      <c r="J24" s="10">
+        <v>24</v>
+      </c>
+      <c r="K24" s="11">
+        <v>24</v>
+      </c>
+      <c r="L24" s="2">
+        <v>23</v>
+      </c>
+      <c r="M24" s="12">
+        <v>24</v>
+      </c>
+      <c r="N24" s="13">
+        <v>26</v>
+      </c>
+      <c r="O24" s="2">
+        <v>27</v>
+      </c>
+      <c r="P24">
+        <v>665</v>
+      </c>
+      <c r="Q24">
+        <v>546</v>
+      </c>
+      <c r="R24">
+        <v>587</v>
+      </c>
+      <c r="S24">
+        <v>654</v>
+      </c>
+      <c r="T24">
+        <v>635</v>
+      </c>
+      <c r="U24">
+        <v>687</v>
+      </c>
+      <c r="V24">
+        <v>754</v>
+      </c>
+      <c r="W24">
+        <v>762</v>
+      </c>
+      <c r="X24">
+        <v>700</v>
+      </c>
+      <c r="Y24">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C23">
-        <v>-75.317422800000003</v>
-      </c>
-      <c r="D23">
-        <v>40.0281065</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="C25">
+        <v>-73.221919200000002</v>
+      </c>
+      <c r="D25">
+        <v>44.006977999999997</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6">
+        <v>5</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="8">
+        <v>4</v>
+      </c>
+      <c r="N25" s="9">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>885</v>
+      </c>
+      <c r="Q25">
+        <v>700</v>
+      </c>
+      <c r="R25">
+        <v>783</v>
+      </c>
+      <c r="S25">
+        <v>908</v>
+      </c>
+      <c r="T25">
+        <v>880</v>
+      </c>
+      <c r="U25">
+        <v>973</v>
+      </c>
+      <c r="V25">
+        <v>1082</v>
+      </c>
+      <c r="W25">
+        <v>1101</v>
+      </c>
+      <c r="X25">
+        <v>1002</v>
+      </c>
+      <c r="Y25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>-72.578328099999993</v>
+      </c>
+      <c r="D26">
+        <v>42.2532535</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="6">
+        <v>25</v>
+      </c>
+      <c r="G26" s="6">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="H26" s="6">
+        <v>29</v>
+      </c>
+      <c r="I26" s="6">
+        <v>32</v>
+      </c>
+      <c r="J26" s="6">
+        <v>38</v>
+      </c>
+      <c r="K26" s="7">
+        <v>41</v>
+      </c>
+      <c r="L26" s="1">
+        <v>35</v>
+      </c>
+      <c r="M26" s="8">
+        <v>36</v>
+      </c>
+      <c r="N26" s="9">
+        <v>36</v>
+      </c>
+      <c r="O26" s="1">
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <v>663</v>
+      </c>
+      <c r="Q26">
+        <v>488</v>
+      </c>
+      <c r="R26">
+        <v>520</v>
+      </c>
+      <c r="S26">
+        <v>602</v>
+      </c>
+      <c r="T26">
+        <v>583</v>
+      </c>
+      <c r="U26">
+        <v>632</v>
+      </c>
+      <c r="V26">
+        <v>710</v>
+      </c>
+      <c r="W26">
+        <v>700</v>
+      </c>
+      <c r="X26">
+        <v>668</v>
+      </c>
+      <c r="Y26">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>-82.233834000000002</v>
+      </c>
+      <c r="D27">
+        <v>41.284330599999997</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="6">
+        <v>22</v>
+      </c>
+      <c r="G27" s="6">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6">
+        <v>24</v>
+      </c>
+      <c r="I27" s="6">
+        <v>26</v>
+      </c>
+      <c r="J27" s="6">
+        <v>25</v>
+      </c>
+      <c r="K27" s="7">
+        <v>23</v>
+      </c>
+      <c r="L27" s="1">
+        <v>23</v>
+      </c>
+      <c r="M27" s="8">
+        <v>24</v>
+      </c>
+      <c r="N27" s="9">
+        <v>26</v>
+      </c>
+      <c r="O27" s="1">
+        <v>30</v>
+      </c>
+      <c r="P27">
+        <v>761</v>
+      </c>
+      <c r="Q27">
+        <v>550</v>
+      </c>
+      <c r="R27">
+        <v>618</v>
+      </c>
+      <c r="S27">
+        <v>700</v>
+      </c>
+      <c r="T27">
+        <v>675</v>
+      </c>
+      <c r="U27">
+        <v>728</v>
+      </c>
+      <c r="V27">
+        <v>816</v>
+      </c>
+      <c r="W27">
+        <v>832</v>
+      </c>
+      <c r="X27">
+        <v>770</v>
+      </c>
+      <c r="Y27">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
-        <v>-104.82792329999999</v>
-      </c>
-      <c r="D24">
-        <v>38.847962000000003</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25">
-        <v>-93.169135400000002</v>
-      </c>
-      <c r="D25">
-        <v>44.937893299999999</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26">
-        <v>-82.400496599999997</v>
-      </c>
-      <c r="D26">
-        <v>40.371896499999998</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27">
-        <v>-72.578328099999993</v>
-      </c>
-      <c r="D27">
-        <v>42.2532535</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
       <c r="C28">
-        <v>-82.233834000000002</v>
+        <v>-118.2123031</v>
       </c>
       <c r="D28">
-        <v>41.284330599999997</v>
+        <v>34.127318699999996</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F28" s="6">
+        <v>33</v>
+      </c>
+      <c r="G28" s="6">
+        <v>36</v>
+      </c>
+      <c r="H28" s="6">
+        <v>37</v>
+      </c>
+      <c r="I28" s="6">
+        <v>39</v>
+      </c>
+      <c r="J28" s="6">
+        <v>41</v>
+      </c>
+      <c r="K28" s="7">
+        <v>44</v>
+      </c>
+      <c r="L28" s="1">
+        <v>43</v>
+      </c>
+      <c r="M28" s="8">
+        <v>44</v>
+      </c>
+      <c r="N28" s="9">
+        <v>44</v>
+      </c>
+      <c r="O28" s="1">
+        <v>39</v>
+      </c>
+      <c r="P28">
+        <v>360</v>
+      </c>
+      <c r="Q28">
+        <v>282</v>
+      </c>
+      <c r="R28">
+        <v>299</v>
+      </c>
+      <c r="S28">
+        <v>342</v>
+      </c>
+      <c r="T28">
+        <v>331</v>
+      </c>
+      <c r="U28">
+        <v>357</v>
+      </c>
+      <c r="V28">
+        <v>406</v>
+      </c>
+      <c r="W28">
+        <v>392</v>
+      </c>
+      <c r="X28">
+        <v>372</v>
+      </c>
+      <c r="Y28">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29">
-        <v>-117.7124015</v>
+        <v>-117.71399169999999</v>
       </c>
       <c r="D29">
-        <v>34.103934799999998</v>
+        <v>34.0977429</v>
       </c>
       <c r="E29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="6">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6">
+        <v>6</v>
+      </c>
+      <c r="H29" s="6">
+        <v>4</v>
+      </c>
+      <c r="I29" s="6">
+        <v>5</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4</v>
+      </c>
+      <c r="K29" s="7">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="8">
+        <v>7</v>
+      </c>
+      <c r="N29" s="9">
+        <v>6</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>1794</v>
+      </c>
+      <c r="Q29">
+        <v>1334</v>
+      </c>
+      <c r="R29">
+        <v>1459</v>
+      </c>
+      <c r="S29">
+        <v>1700</v>
+      </c>
+      <c r="T29">
+        <v>1680</v>
+      </c>
+      <c r="U29">
+        <v>1823</v>
+      </c>
+      <c r="V29">
+        <v>2101</v>
+      </c>
+      <c r="W29">
+        <v>2099</v>
+      </c>
+      <c r="X29">
+        <v>1985</v>
+      </c>
+      <c r="Y29">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30">
-        <v>-71.810149499999994</v>
+        <v>-122.6329927</v>
       </c>
       <c r="D30">
-        <v>42.239239099999999</v>
+        <v>45.4816194</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F30" s="6">
+        <v>49</v>
+      </c>
+      <c r="G30" s="6">
+        <v>54</v>
+      </c>
+      <c r="H30" s="6">
+        <v>57</v>
+      </c>
+      <c r="I30" s="6">
+        <v>75</v>
+      </c>
+      <c r="J30" s="6">
+        <v>74</v>
+      </c>
+      <c r="K30" s="7">
+        <v>77</v>
+      </c>
+      <c r="L30" s="1">
+        <v>93</v>
+      </c>
+      <c r="M30" s="8">
+        <v>87</v>
+      </c>
+      <c r="N30" s="9">
+        <v>82</v>
+      </c>
+      <c r="O30" s="1">
+        <v>90</v>
+      </c>
+      <c r="P30">
+        <v>427</v>
+      </c>
+      <c r="Q30">
+        <v>311</v>
+      </c>
+      <c r="R30">
+        <v>359</v>
+      </c>
+      <c r="S30">
+        <v>399</v>
+      </c>
+      <c r="T30">
+        <v>440</v>
+      </c>
+      <c r="U30">
+        <v>485</v>
+      </c>
+      <c r="V30">
+        <v>543</v>
+      </c>
+      <c r="W30">
+        <v>545</v>
+      </c>
+      <c r="X30">
+        <v>497</v>
+      </c>
+      <c r="Y30">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
       </c>
       <c r="C31">
-        <v>-76.887126499999994</v>
+        <v>-73.845845699999998</v>
       </c>
       <c r="D31">
-        <v>40.954726800000003</v>
+        <v>40.934590900000003</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7">
+        <v>59</v>
+      </c>
+      <c r="L31" s="1">
+        <v>57</v>
+      </c>
+      <c r="M31" s="8">
+        <v>59</v>
+      </c>
+      <c r="N31" s="9">
+        <v>53</v>
+      </c>
+      <c r="O31" s="1">
+        <v>65</v>
+      </c>
+      <c r="P31">
+        <v>78</v>
+      </c>
+      <c r="Q31">
+        <v>59</v>
+      </c>
+      <c r="R31">
+        <v>66</v>
+      </c>
+      <c r="S31">
+        <v>74</v>
+      </c>
+      <c r="T31">
+        <v>67</v>
+      </c>
+      <c r="U31">
+        <v>75</v>
+      </c>
+      <c r="V31">
+        <v>88</v>
+      </c>
+      <c r="W31">
+        <v>91</v>
+      </c>
+      <c r="X31">
+        <v>90</v>
+      </c>
+      <c r="Y31">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>-76.322111399999997</v>
+        <v>-117.7124015</v>
       </c>
       <c r="D32">
-        <v>40.048739099999999</v>
+        <v>34.103934799999998</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F32" s="6">
+        <v>25</v>
+      </c>
+      <c r="G32" s="6">
+        <v>23</v>
+      </c>
+      <c r="H32" s="6">
+        <v>29</v>
+      </c>
+      <c r="I32" s="6">
+        <v>24</v>
+      </c>
+      <c r="J32" s="6">
+        <v>25</v>
+      </c>
+      <c r="K32" s="7">
+        <v>24</v>
+      </c>
+      <c r="L32" s="1">
+        <v>29</v>
+      </c>
+      <c r="M32" s="8">
+        <v>23</v>
+      </c>
+      <c r="N32" s="9">
+        <v>26</v>
+      </c>
+      <c r="O32" s="1">
+        <v>30</v>
+      </c>
+      <c r="P32">
+        <v>271</v>
+      </c>
+      <c r="Q32">
+        <v>212</v>
+      </c>
+      <c r="R32">
+        <v>237</v>
+      </c>
+      <c r="S32">
+        <v>267</v>
+      </c>
+      <c r="T32">
+        <v>257</v>
+      </c>
+      <c r="U32">
+        <v>282</v>
+      </c>
+      <c r="V32">
+        <v>311</v>
+      </c>
+      <c r="W32">
+        <v>305</v>
+      </c>
+      <c r="X32">
+        <v>296</v>
+      </c>
+      <c r="Y32">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
       </c>
       <c r="C33">
-        <v>-75.210918500000005</v>
+        <v>-72.644686899999996</v>
       </c>
       <c r="D33">
-        <v>40.698620200000001</v>
+        <v>42.316299200000003</v>
       </c>
       <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="6">
+        <v>18</v>
+      </c>
+      <c r="G33" s="6">
+        <v>14</v>
+      </c>
+      <c r="H33" s="6">
+        <v>19</v>
+      </c>
+      <c r="I33" s="6">
+        <v>18</v>
+      </c>
+      <c r="J33" s="6">
+        <v>20</v>
+      </c>
+      <c r="K33" s="7">
+        <v>19</v>
+      </c>
+      <c r="L33" s="1">
+        <v>14</v>
+      </c>
+      <c r="M33" s="8">
+        <v>12</v>
+      </c>
+      <c r="N33" s="9">
+        <v>12</v>
+      </c>
+      <c r="O33" s="1">
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <v>1366</v>
+      </c>
+      <c r="Q33">
+        <v>1096</v>
+      </c>
+      <c r="R33">
+        <v>1244</v>
+      </c>
+      <c r="S33">
+        <v>1439</v>
+      </c>
+      <c r="T33">
+        <v>1410</v>
+      </c>
+      <c r="U33">
+        <v>1557</v>
+      </c>
+      <c r="V33">
+        <v>1756</v>
+      </c>
+      <c r="W33">
+        <v>1782</v>
+      </c>
+      <c r="X33">
+        <v>1627</v>
+      </c>
+      <c r="Y33">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>-75.358238700000001</v>
+      </c>
+      <c r="D34">
+        <v>39.901461599999998</v>
+      </c>
+      <c r="E34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34">
-        <v>-118.2123031</v>
-      </c>
-      <c r="D34">
-        <v>34.127318699999996</v>
-      </c>
-      <c r="E34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3</v>
+      </c>
+      <c r="H34" s="6">
+        <v>3</v>
+      </c>
+      <c r="I34" s="6">
+        <v>3</v>
+      </c>
+      <c r="J34" s="6">
+        <v>3</v>
+      </c>
+      <c r="K34" s="7">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34" s="8">
+        <v>4</v>
+      </c>
+      <c r="N34" s="9">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>1413</v>
+      </c>
+      <c r="Q34">
+        <v>1129</v>
+      </c>
+      <c r="R34">
+        <v>1249</v>
+      </c>
+      <c r="S34">
+        <v>1508</v>
+      </c>
+      <c r="T34">
+        <v>1499</v>
+      </c>
+      <c r="U34">
+        <v>1635</v>
+      </c>
+      <c r="V34">
+        <v>1877</v>
+      </c>
+      <c r="W34">
+        <v>1846</v>
+      </c>
+      <c r="X34">
+        <v>1747</v>
+      </c>
+      <c r="Y34">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
       <c r="C35">
-        <v>-73.931787400000005</v>
+        <v>-72.692523199999997</v>
       </c>
       <c r="D35">
-        <v>42.817712499999999</v>
+        <v>41.747933199999999</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F35" s="6">
+        <v>36</v>
+      </c>
+      <c r="G35" s="6">
+        <v>36</v>
+      </c>
+      <c r="H35" s="6">
+        <v>37</v>
+      </c>
+      <c r="I35" s="6">
+        <v>38</v>
+      </c>
+      <c r="J35" s="6">
+        <v>36</v>
+      </c>
+      <c r="K35" s="7">
+        <v>45</v>
+      </c>
+      <c r="L35" s="1">
+        <v>43</v>
+      </c>
+      <c r="M35" s="8">
+        <v>38</v>
+      </c>
+      <c r="N35" s="9">
+        <v>44</v>
+      </c>
+      <c r="O35" s="1">
+        <v>46</v>
+      </c>
+      <c r="P35">
+        <v>414</v>
+      </c>
+      <c r="Q35">
+        <v>319</v>
+      </c>
+      <c r="R35">
+        <v>357</v>
+      </c>
+      <c r="S35">
+        <v>417</v>
+      </c>
+      <c r="T35">
+        <v>423</v>
+      </c>
+      <c r="U35">
+        <v>473</v>
+      </c>
+      <c r="V35">
+        <v>540</v>
+      </c>
+      <c r="W35">
+        <v>562</v>
+      </c>
+      <c r="X35">
+        <v>524</v>
+      </c>
+      <c r="Y35">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>-85.931131600000001</v>
+      </c>
+      <c r="D36">
+        <v>35.203954799999998</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="6">
+        <v>36</v>
+      </c>
+      <c r="G36" s="6">
+        <v>32</v>
+      </c>
+      <c r="H36" s="6">
+        <v>33</v>
+      </c>
+      <c r="I36" s="6">
+        <v>36</v>
+      </c>
+      <c r="J36" s="6">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="K36" s="7">
         <v>45</v>
       </c>
-      <c r="C36">
-        <v>-72.106775600000006</v>
-      </c>
-      <c r="D36">
-        <v>41.378687599999999</v>
-      </c>
-      <c r="E36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="L36" s="1">
+        <v>48</v>
+      </c>
+      <c r="M36" s="8">
+        <v>47</v>
+      </c>
+      <c r="N36" s="9">
+        <v>41</v>
+      </c>
+      <c r="O36" s="1">
+        <v>49</v>
+      </c>
+      <c r="P36">
+        <v>313</v>
+      </c>
+      <c r="Q36">
+        <v>246</v>
+      </c>
+      <c r="R36">
+        <v>272</v>
+      </c>
+      <c r="S36">
+        <v>319</v>
+      </c>
+      <c r="T36">
+        <v>319</v>
+      </c>
+      <c r="U36">
+        <v>337</v>
+      </c>
+      <c r="V36">
+        <v>374</v>
+      </c>
+      <c r="W36">
+        <v>378</v>
+      </c>
+      <c r="X36">
+        <v>358</v>
+      </c>
+      <c r="Y36">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
       <c r="C37">
-        <v>-72.692523199999997</v>
+        <v>-73.931787400000005</v>
       </c>
       <c r="D37">
-        <v>41.747933199999999</v>
+        <v>42.817712499999999</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F37" s="6">
+        <v>43</v>
+      </c>
+      <c r="G37" s="6">
+        <v>41</v>
+      </c>
+      <c r="H37" s="6">
+        <v>40</v>
+      </c>
+      <c r="I37" s="6">
+        <v>41</v>
+      </c>
+      <c r="J37" s="6">
+        <v>41</v>
+      </c>
+      <c r="K37" s="7">
+        <v>41</v>
+      </c>
+      <c r="L37" s="1">
+        <v>38</v>
+      </c>
+      <c r="M37" s="8">
+        <v>38</v>
+      </c>
+      <c r="N37" s="9">
+        <v>36</v>
+      </c>
+      <c r="O37" s="1">
+        <v>39</v>
+      </c>
+      <c r="P37">
+        <v>391</v>
+      </c>
+      <c r="Q37">
+        <v>284</v>
+      </c>
+      <c r="R37">
+        <v>291</v>
+      </c>
+      <c r="S37">
+        <v>322</v>
+      </c>
+      <c r="T37">
+        <v>317</v>
+      </c>
+      <c r="U37">
+        <v>353</v>
+      </c>
+      <c r="V37">
+        <v>411</v>
+      </c>
+      <c r="W37">
+        <v>436</v>
+      </c>
+      <c r="X37">
+        <v>385</v>
+      </c>
+      <c r="Y37">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>-85.931131600000001</v>
+        <v>-73.897888899999998</v>
       </c>
       <c r="D38">
-        <v>35.203954799999998</v>
+        <v>41.686799200000003</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F38" s="6">
+        <v>11</v>
+      </c>
+      <c r="G38" s="6">
+        <v>12</v>
+      </c>
+      <c r="H38" s="6">
+        <v>14</v>
+      </c>
+      <c r="I38" s="6">
+        <v>11</v>
+      </c>
+      <c r="J38" s="6">
+        <v>13</v>
+      </c>
+      <c r="K38" s="7">
+        <v>11</v>
+      </c>
+      <c r="L38" s="1">
+        <v>12</v>
+      </c>
+      <c r="M38" s="8">
+        <v>12</v>
+      </c>
+      <c r="N38" s="9">
+        <v>12</v>
+      </c>
+      <c r="O38" s="1">
+        <v>11</v>
+      </c>
+      <c r="P38">
+        <v>849</v>
+      </c>
+      <c r="Q38">
+        <v>658</v>
+      </c>
+      <c r="R38">
+        <v>699</v>
+      </c>
+      <c r="S38">
+        <v>814</v>
+      </c>
+      <c r="T38">
+        <v>805</v>
+      </c>
+      <c r="U38">
+        <v>869</v>
+      </c>
+      <c r="V38">
+        <v>974</v>
+      </c>
+      <c r="W38">
+        <v>983</v>
+      </c>
+      <c r="X38">
+        <v>929</v>
+      </c>
+      <c r="Y38">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>-88.401776900000002</v>
+        <v>-79.447145000000006</v>
       </c>
       <c r="D39">
-        <v>44.260832700000002</v>
+        <v>37.790486100000003</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F39" s="6">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6">
+        <v>14</v>
+      </c>
+      <c r="H39" s="6">
+        <v>12</v>
+      </c>
+      <c r="I39" s="6">
+        <v>14</v>
+      </c>
+      <c r="J39" s="6">
+        <v>14</v>
+      </c>
+      <c r="K39" s="7">
+        <v>14</v>
+      </c>
+      <c r="L39" s="1">
+        <v>14</v>
+      </c>
+      <c r="M39" s="8">
+        <v>11</v>
+      </c>
+      <c r="N39" s="9">
+        <v>10</v>
+      </c>
+      <c r="O39" s="1">
+        <v>11</v>
+      </c>
+      <c r="P39">
+        <v>719</v>
+      </c>
+      <c r="Q39">
+        <v>897</v>
+      </c>
+      <c r="R39">
+        <v>1008</v>
+      </c>
+      <c r="S39">
+        <v>1218</v>
+      </c>
+      <c r="T39">
+        <v>1262</v>
+      </c>
+      <c r="U39">
+        <v>1345</v>
+      </c>
+      <c r="V39">
+        <v>1478</v>
+      </c>
+      <c r="W39">
+        <v>1471</v>
+      </c>
+      <c r="X39">
+        <v>1472</v>
+      </c>
+      <c r="Y39">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>-73.845845699999998</v>
+        <v>-71.3134479</v>
       </c>
       <c r="D40">
-        <v>40.934590900000003</v>
+        <v>42.299521599999999</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F40" s="6">
+        <v>4</v>
+      </c>
+      <c r="G40" s="6">
+        <v>4</v>
+      </c>
+      <c r="H40" s="6">
+        <v>6</v>
+      </c>
+      <c r="I40" s="6">
+        <v>7</v>
+      </c>
+      <c r="J40" s="6">
+        <v>7</v>
+      </c>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4</v>
+      </c>
+      <c r="M40" s="8">
+        <v>3</v>
+      </c>
+      <c r="N40" s="9">
+        <v>3</v>
+      </c>
+      <c r="O40" s="1">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>1611</v>
+      </c>
+      <c r="Q40">
+        <v>1266</v>
+      </c>
+      <c r="R40">
+        <v>1307</v>
+      </c>
+      <c r="S40">
+        <v>1500</v>
+      </c>
+      <c r="T40">
+        <v>1445</v>
+      </c>
+      <c r="U40">
+        <v>1550</v>
+      </c>
+      <c r="V40">
+        <v>1808</v>
+      </c>
+      <c r="W40">
+        <v>1854</v>
+      </c>
+      <c r="X40">
+        <v>1762</v>
+      </c>
+      <c r="Y40">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>-89.033093500000007</v>
+        <v>-72.659092799999996</v>
       </c>
       <c r="D41">
-        <v>42.503033299999998</v>
+        <v>41.556610399999997</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F41" s="6">
+        <v>13</v>
+      </c>
+      <c r="G41" s="6">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6">
+        <v>12</v>
+      </c>
+      <c r="I41" s="6">
+        <v>17</v>
+      </c>
+      <c r="J41" s="6">
+        <v>17</v>
+      </c>
+      <c r="K41" s="7">
+        <v>15</v>
+      </c>
+      <c r="L41" s="1">
+        <v>14</v>
+      </c>
+      <c r="M41" s="8">
+        <v>21</v>
+      </c>
+      <c r="N41" s="9">
+        <v>21</v>
+      </c>
+      <c r="O41" s="1">
+        <v>18</v>
+      </c>
+      <c r="P41">
+        <v>652</v>
+      </c>
+      <c r="Q41">
+        <v>476</v>
+      </c>
+      <c r="R41">
+        <v>504</v>
+      </c>
+      <c r="S41">
+        <v>590</v>
+      </c>
+      <c r="T41">
+        <v>601</v>
+      </c>
+      <c r="U41">
+        <v>670</v>
+      </c>
+      <c r="V41">
+        <v>768</v>
+      </c>
+      <c r="W41">
+        <v>810</v>
+      </c>
+      <c r="X41">
+        <v>770</v>
+      </c>
+      <c r="Y41">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>-122.6329927</v>
+        <v>-73.205828299999993</v>
       </c>
       <c r="D42">
-        <v>45.4816194</v>
+        <v>42.712958100000002</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="8">
+        <v>1</v>
+      </c>
+      <c r="N42" s="9">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1808</v>
+      </c>
+      <c r="Q42">
+        <v>1409</v>
+      </c>
+      <c r="R42">
+        <v>1527</v>
+      </c>
+      <c r="S42">
+        <v>1784</v>
+      </c>
+      <c r="T42">
+        <v>1799</v>
+      </c>
+      <c r="U42">
+        <v>1997</v>
+      </c>
+      <c r="V42">
+        <v>2253</v>
+      </c>
+      <c r="W42">
+        <v>2395</v>
+      </c>
+      <c r="X42">
+        <v>2256</v>
+      </c>
+      <c r="Y42">
+        <v>2509</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E42">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/map_data/map-data.xlsx
+++ b/map_data/map-data.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
